--- a/Labs/Lab1/05-2018.xlsx
+++ b/Labs/Lab1/05-2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,30 +370,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>UBICACION</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>CANTIDAD</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PILOTO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CREDITO</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>UNIDAD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
@@ -409,25 +414,28 @@
         </is>
       </c>
       <c r="C2">
+        <v>76001</v>
+      </c>
+      <c r="D2">
         <v>509</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>127.25</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -443,25 +451,28 @@
         </is>
       </c>
       <c r="C3">
+        <v>76001</v>
+      </c>
+      <c r="D3">
         <v>243</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>60.75</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -477,25 +488,28 @@
         </is>
       </c>
       <c r="C4">
+        <v>76002</v>
+      </c>
+      <c r="D4">
         <v>1513</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>378.25</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>60</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -511,25 +525,28 @@
         </is>
       </c>
       <c r="C5">
+        <v>76002</v>
+      </c>
+      <c r="D5">
         <v>287</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>71.75</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>60</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -545,25 +562,28 @@
         </is>
       </c>
       <c r="C6">
+        <v>76002</v>
+      </c>
+      <c r="D6">
         <v>1764</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>441</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>90</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -579,25 +599,28 @@
         </is>
       </c>
       <c r="C7">
+        <v>76002</v>
+      </c>
+      <c r="D7">
         <v>1669</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>417.25</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>90</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -613,25 +636,28 @@
         </is>
       </c>
       <c r="C8">
+        <v>76002</v>
+      </c>
+      <c r="D8">
         <v>954</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>238.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -647,25 +673,28 @@
         </is>
       </c>
       <c r="C9">
+        <v>76001</v>
+      </c>
+      <c r="D9">
         <v>679</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>169.75</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>30</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -681,25 +710,28 @@
         </is>
       </c>
       <c r="C10">
+        <v>76001</v>
+      </c>
+      <c r="D10">
         <v>267</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>66.75</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>90</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -715,25 +747,28 @@
         </is>
       </c>
       <c r="C11">
+        <v>76002</v>
+      </c>
+      <c r="D11">
         <v>922</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>230.5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>60</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -749,25 +784,28 @@
         </is>
       </c>
       <c r="C12">
+        <v>76002</v>
+      </c>
+      <c r="D12">
         <v>938</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>234.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>90</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -783,25 +821,28 @@
         </is>
       </c>
       <c r="C13">
+        <v>76001</v>
+      </c>
+      <c r="D13">
         <v>1822</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>455.5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>90</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -817,25 +858,28 @@
         </is>
       </c>
       <c r="C14">
+        <v>76002</v>
+      </c>
+      <c r="D14">
         <v>711</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>177.75</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>60</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -851,25 +895,28 @@
         </is>
       </c>
       <c r="C15">
+        <v>76001</v>
+      </c>
+      <c r="D15">
         <v>1829</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>457.25</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>30</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -885,25 +932,28 @@
         </is>
       </c>
       <c r="C16">
+        <v>76002</v>
+      </c>
+      <c r="D16">
         <v>323</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>80.75</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>60</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -919,25 +969,28 @@
         </is>
       </c>
       <c r="C17">
+        <v>76001</v>
+      </c>
+      <c r="D17">
         <v>559</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>139.75</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>60</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -953,25 +1006,28 @@
         </is>
       </c>
       <c r="C18">
+        <v>76002</v>
+      </c>
+      <c r="D18">
         <v>1847</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>461.75</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>60</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -987,25 +1043,28 @@
         </is>
       </c>
       <c r="C19">
+        <v>76001</v>
+      </c>
+      <c r="D19">
         <v>1735</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>433.75</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1021,25 +1080,28 @@
         </is>
       </c>
       <c r="C20">
+        <v>76001</v>
+      </c>
+      <c r="D20">
         <v>1811</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>452.75</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>90</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1055,25 +1117,28 @@
         </is>
       </c>
       <c r="C21">
+        <v>76002</v>
+      </c>
+      <c r="D21">
         <v>1381</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>345.25</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>30</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1089,25 +1154,28 @@
         </is>
       </c>
       <c r="C22">
+        <v>76001</v>
+      </c>
+      <c r="D22">
         <v>1879</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>469.75</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>90</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1123,25 +1191,28 @@
         </is>
       </c>
       <c r="C23">
+        <v>76001</v>
+      </c>
+      <c r="D23">
         <v>1914</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>478.5</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>60</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1157,25 +1228,28 @@
         </is>
       </c>
       <c r="C24">
+        <v>76002</v>
+      </c>
+      <c r="D24">
         <v>1490</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>372.5</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>60</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1191,25 +1265,28 @@
         </is>
       </c>
       <c r="C25">
+        <v>76001</v>
+      </c>
+      <c r="D25">
         <v>465</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>116.25</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>90</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1225,25 +1302,28 @@
         </is>
       </c>
       <c r="C26">
+        <v>76002</v>
+      </c>
+      <c r="D26">
         <v>279</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>69.75</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>30</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1259,25 +1339,28 @@
         </is>
       </c>
       <c r="C27">
+        <v>76002</v>
+      </c>
+      <c r="D27">
         <v>310</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>77.5</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>30</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1293,25 +1376,28 @@
         </is>
       </c>
       <c r="C28">
+        <v>76002</v>
+      </c>
+      <c r="D28">
         <v>1439</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>359.75</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>30</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1327,25 +1413,28 @@
         </is>
       </c>
       <c r="C29">
+        <v>76001</v>
+      </c>
+      <c r="D29">
         <v>1387</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>346.75</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>30</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1361,25 +1450,28 @@
         </is>
       </c>
       <c r="C30">
+        <v>76002</v>
+      </c>
+      <c r="D30">
         <v>1596</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>399</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>30</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1395,25 +1487,28 @@
         </is>
       </c>
       <c r="C31">
+        <v>76001</v>
+      </c>
+      <c r="D31">
         <v>1074</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>268.5</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>90</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1429,25 +1524,28 @@
         </is>
       </c>
       <c r="C32">
+        <v>76002</v>
+      </c>
+      <c r="D32">
         <v>505</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>126.25</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>30</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1463,25 +1561,28 @@
         </is>
       </c>
       <c r="C33">
+        <v>76001</v>
+      </c>
+      <c r="D33">
         <v>1662</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>415.5</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>30</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1497,25 +1598,28 @@
         </is>
       </c>
       <c r="C34">
+        <v>76002</v>
+      </c>
+      <c r="D34">
         <v>757</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>189.25</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>90</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1531,25 +1635,28 @@
         </is>
       </c>
       <c r="C35">
+        <v>76002</v>
+      </c>
+      <c r="D35">
         <v>1991</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>497.75</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>30</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1565,25 +1672,28 @@
         </is>
       </c>
       <c r="C36">
+        <v>76001</v>
+      </c>
+      <c r="D36">
         <v>231</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>57.75</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>90</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1599,25 +1709,28 @@
         </is>
       </c>
       <c r="C37">
+        <v>76001</v>
+      </c>
+      <c r="D37">
         <v>959</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>239.75</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>90</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1633,25 +1746,28 @@
         </is>
       </c>
       <c r="C38">
+        <v>76001</v>
+      </c>
+      <c r="D38">
         <v>382</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>95.5</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>60</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1667,25 +1783,28 @@
         </is>
       </c>
       <c r="C39">
+        <v>76001</v>
+      </c>
+      <c r="D39">
         <v>736</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>184</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>90</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1701,25 +1820,28 @@
         </is>
       </c>
       <c r="C40">
+        <v>76001</v>
+      </c>
+      <c r="D40">
         <v>1734</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>433.5</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>90</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1735,25 +1857,28 @@
         </is>
       </c>
       <c r="C41">
+        <v>76002</v>
+      </c>
+      <c r="D41">
         <v>584</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>146</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>30</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1769,25 +1894,28 @@
         </is>
       </c>
       <c r="C42">
+        <v>76001</v>
+      </c>
+      <c r="D42">
         <v>524</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>131</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>90</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1803,25 +1931,28 @@
         </is>
       </c>
       <c r="C43">
+        <v>76002</v>
+      </c>
+      <c r="D43">
         <v>598</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>149.5</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>30</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1837,25 +1968,28 @@
         </is>
       </c>
       <c r="C44">
+        <v>76002</v>
+      </c>
+      <c r="D44">
         <v>851</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>212.75</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>60</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1871,25 +2005,28 @@
         </is>
       </c>
       <c r="C45">
+        <v>76001</v>
+      </c>
+      <c r="D45">
         <v>1621</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>405.25</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>30</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1905,25 +2042,28 @@
         </is>
       </c>
       <c r="C46">
+        <v>76001</v>
+      </c>
+      <c r="D46">
         <v>659</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>164.75</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>60</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1939,25 +2079,28 @@
         </is>
       </c>
       <c r="C47">
+        <v>76001</v>
+      </c>
+      <c r="D47">
         <v>810</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>202.5</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>90</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -1973,25 +2116,28 @@
         </is>
       </c>
       <c r="C48">
+        <v>76002</v>
+      </c>
+      <c r="D48">
         <v>937</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>234.25</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>90</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2007,25 +2153,28 @@
         </is>
       </c>
       <c r="C49">
+        <v>76001</v>
+      </c>
+      <c r="D49">
         <v>1884</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>471</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>60</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2041,25 +2190,28 @@
         </is>
       </c>
       <c r="C50">
+        <v>76001</v>
+      </c>
+      <c r="D50">
         <v>689</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>172.25</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>90</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2075,25 +2227,28 @@
         </is>
       </c>
       <c r="C51">
+        <v>76001</v>
+      </c>
+      <c r="D51">
         <v>1754</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>438.5</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>30</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2109,25 +2264,28 @@
         </is>
       </c>
       <c r="C52">
+        <v>76001</v>
+      </c>
+      <c r="D52">
         <v>1705</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>426.25</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>90</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2143,25 +2301,28 @@
         </is>
       </c>
       <c r="C53">
+        <v>76002</v>
+      </c>
+      <c r="D53">
         <v>1100</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>275</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>60</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2177,25 +2338,28 @@
         </is>
       </c>
       <c r="C54">
+        <v>76002</v>
+      </c>
+      <c r="D54">
         <v>899</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>224.75</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>30</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2211,25 +2375,28 @@
         </is>
       </c>
       <c r="C55">
+        <v>76002</v>
+      </c>
+      <c r="D55">
         <v>953</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>238.25</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>90</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2245,25 +2412,28 @@
         </is>
       </c>
       <c r="C56">
+        <v>76002</v>
+      </c>
+      <c r="D56">
         <v>1262</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>315.5</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>60</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2279,25 +2449,28 @@
         </is>
       </c>
       <c r="C57">
+        <v>76002</v>
+      </c>
+      <c r="D57">
         <v>1496</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>374</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>90</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2313,25 +2486,28 @@
         </is>
       </c>
       <c r="C58">
+        <v>76002</v>
+      </c>
+      <c r="D58">
         <v>810</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>202.5</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>30</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2347,25 +2523,28 @@
         </is>
       </c>
       <c r="C59">
+        <v>76002</v>
+      </c>
+      <c r="D59">
         <v>1821</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>455.25</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>90</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2381,25 +2560,28 @@
         </is>
       </c>
       <c r="C60">
+        <v>76002</v>
+      </c>
+      <c r="D60">
         <v>563</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>140.75</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>60</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2415,25 +2597,28 @@
         </is>
       </c>
       <c r="C61">
+        <v>76001</v>
+      </c>
+      <c r="D61">
         <v>1378</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>344.5</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>90</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2449,25 +2634,28 @@
         </is>
       </c>
       <c r="C62">
+        <v>76001</v>
+      </c>
+      <c r="D62">
         <v>561</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>140.25</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>60</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2483,25 +2671,28 @@
         </is>
       </c>
       <c r="C63">
+        <v>76001</v>
+      </c>
+      <c r="D63">
         <v>1349</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>337.25</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>30</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2517,25 +2708,28 @@
         </is>
       </c>
       <c r="C64">
+        <v>76002</v>
+      </c>
+      <c r="D64">
         <v>1047</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>261.75</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>60</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2551,25 +2745,28 @@
         </is>
       </c>
       <c r="C65">
+        <v>76001</v>
+      </c>
+      <c r="D65">
         <v>1219</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>304.75</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>90</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2585,25 +2782,28 @@
         </is>
       </c>
       <c r="C66">
+        <v>76001</v>
+      </c>
+      <c r="D66">
         <v>591</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>147.75</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>60</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2619,25 +2819,28 @@
         </is>
       </c>
       <c r="C67">
+        <v>76001</v>
+      </c>
+      <c r="D67">
         <v>980</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>245</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>60</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2653,25 +2856,28 @@
         </is>
       </c>
       <c r="C68">
+        <v>76002</v>
+      </c>
+      <c r="D68">
         <v>537</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>134.25</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>60</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2687,25 +2893,28 @@
         </is>
       </c>
       <c r="C69">
+        <v>76001</v>
+      </c>
+      <c r="D69">
         <v>395</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>98.75</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>30</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2721,25 +2930,28 @@
         </is>
       </c>
       <c r="C70">
+        <v>76002</v>
+      </c>
+      <c r="D70">
         <v>1396</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>349</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>60</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2755,25 +2967,28 @@
         </is>
       </c>
       <c r="C71">
+        <v>76002</v>
+      </c>
+      <c r="D71">
         <v>1559</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>389.75</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>60</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2789,25 +3004,28 @@
         </is>
       </c>
       <c r="C72">
+        <v>76002</v>
+      </c>
+      <c r="D72">
         <v>1116</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>279</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>30</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2823,25 +3041,28 @@
         </is>
       </c>
       <c r="C73">
+        <v>76002</v>
+      </c>
+      <c r="D73">
         <v>1507</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>376.75</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>60</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2857,25 +3078,28 @@
         </is>
       </c>
       <c r="C74">
+        <v>76001</v>
+      </c>
+      <c r="D74">
         <v>752</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>188</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>90</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2891,25 +3115,28 @@
         </is>
       </c>
       <c r="C75">
+        <v>76001</v>
+      </c>
+      <c r="D75">
         <v>1938</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>484.5</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>60</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2925,25 +3152,28 @@
         </is>
       </c>
       <c r="C76">
+        <v>76001</v>
+      </c>
+      <c r="D76">
         <v>1823</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>455.75</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>90</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2959,25 +3189,28 @@
         </is>
       </c>
       <c r="C77">
+        <v>76001</v>
+      </c>
+      <c r="D77">
         <v>1740</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>435</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>60</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -2993,25 +3226,28 @@
         </is>
       </c>
       <c r="C78">
+        <v>76001</v>
+      </c>
+      <c r="D78">
         <v>937</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>234.25</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>90</v>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3027,25 +3263,28 @@
         </is>
       </c>
       <c r="C79">
+        <v>76001</v>
+      </c>
+      <c r="D79">
         <v>1842</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>460.5</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>90</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3061,25 +3300,28 @@
         </is>
       </c>
       <c r="C80">
+        <v>76001</v>
+      </c>
+      <c r="D80">
         <v>1090</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>272.5</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>60</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3095,25 +3337,28 @@
         </is>
       </c>
       <c r="C81">
+        <v>76002</v>
+      </c>
+      <c r="D81">
         <v>1342</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>335.5</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>60</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3129,25 +3374,28 @@
         </is>
       </c>
       <c r="C82">
+        <v>76002</v>
+      </c>
+      <c r="D82">
         <v>1618</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>404.5</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>90</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3163,25 +3411,28 @@
         </is>
       </c>
       <c r="C83">
+        <v>76001</v>
+      </c>
+      <c r="D83">
         <v>1753</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>438.25</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>30</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3197,25 +3448,28 @@
         </is>
       </c>
       <c r="C84">
+        <v>76001</v>
+      </c>
+      <c r="D84">
         <v>681</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>170.25</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>30</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3231,25 +3485,28 @@
         </is>
       </c>
       <c r="C85">
+        <v>76001</v>
+      </c>
+      <c r="D85">
         <v>1908</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>477</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>90</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3265,25 +3522,28 @@
         </is>
       </c>
       <c r="C86">
+        <v>76001</v>
+      </c>
+      <c r="D86">
         <v>340</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>85</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>30</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3299,25 +3559,28 @@
         </is>
       </c>
       <c r="C87">
+        <v>76001</v>
+      </c>
+      <c r="D87">
         <v>1902</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>475.5</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>60</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3333,25 +3596,28 @@
         </is>
       </c>
       <c r="C88">
+        <v>76001</v>
+      </c>
+      <c r="D88">
         <v>1949</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>487.25</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>30</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3367,25 +3633,28 @@
         </is>
       </c>
       <c r="C89">
+        <v>76002</v>
+      </c>
+      <c r="D89">
         <v>1583</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>395.75</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>30</v>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3401,25 +3670,28 @@
         </is>
       </c>
       <c r="C90">
+        <v>76002</v>
+      </c>
+      <c r="D90">
         <v>1713</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>428.25</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>30</v>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3435,25 +3707,28 @@
         </is>
       </c>
       <c r="C91">
+        <v>76002</v>
+      </c>
+      <c r="D91">
         <v>1454</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>363.5</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>60</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3469,25 +3744,28 @@
         </is>
       </c>
       <c r="C92">
+        <v>76002</v>
+      </c>
+      <c r="D92">
         <v>469</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>117.25</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>60</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3503,25 +3781,28 @@
         </is>
       </c>
       <c r="C93">
+        <v>76001</v>
+      </c>
+      <c r="D93">
         <v>620</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>155</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>90</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3537,25 +3818,28 @@
         </is>
       </c>
       <c r="C94">
+        <v>76001</v>
+      </c>
+      <c r="D94">
         <v>1169</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>292.25</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>30</v>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3571,25 +3855,28 @@
         </is>
       </c>
       <c r="C95">
+        <v>76001</v>
+      </c>
+      <c r="D95">
         <v>1619</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>404.75</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>30</v>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3605,25 +3892,28 @@
         </is>
       </c>
       <c r="C96">
+        <v>76001</v>
+      </c>
+      <c r="D96">
         <v>880</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>220</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>30</v>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3639,25 +3929,28 @@
         </is>
       </c>
       <c r="C97">
+        <v>76001</v>
+      </c>
+      <c r="D97">
         <v>1623</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>405.75</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>90</v>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3673,25 +3966,28 @@
         </is>
       </c>
       <c r="C98">
+        <v>76002</v>
+      </c>
+      <c r="D98">
         <v>1079</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>269.75</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>60</v>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3707,25 +4003,28 @@
         </is>
       </c>
       <c r="C99">
+        <v>76002</v>
+      </c>
+      <c r="D99">
         <v>582</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>145.5</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>60</v>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3741,25 +4040,28 @@
         </is>
       </c>
       <c r="C100">
+        <v>76002</v>
+      </c>
+      <c r="D100">
         <v>1882</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>470.5</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>60</v>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3775,25 +4077,28 @@
         </is>
       </c>
       <c r="C101">
+        <v>76001</v>
+      </c>
+      <c r="D101">
         <v>1330</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>332.5</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>60</v>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3809,25 +4114,28 @@
         </is>
       </c>
       <c r="C102">
+        <v>76002</v>
+      </c>
+      <c r="D102">
         <v>751</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>187.75</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>90</v>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3843,25 +4151,28 @@
         </is>
       </c>
       <c r="C103">
+        <v>76001</v>
+      </c>
+      <c r="D103">
         <v>1697</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>424.25</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>30</v>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H103" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3877,25 +4188,28 @@
         </is>
       </c>
       <c r="C104">
+        <v>76002</v>
+      </c>
+      <c r="D104">
         <v>1261</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>315.25</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>60</v>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H104" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3911,25 +4225,28 @@
         </is>
       </c>
       <c r="C105">
+        <v>76001</v>
+      </c>
+      <c r="D105">
         <v>1722</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>430.5</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>30</v>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H105" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3945,25 +4262,28 @@
         </is>
       </c>
       <c r="C106">
+        <v>76001</v>
+      </c>
+      <c r="D106">
         <v>639</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>159.75</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>60</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -3979,25 +4299,28 @@
         </is>
       </c>
       <c r="C107">
+        <v>76001</v>
+      </c>
+      <c r="D107">
         <v>504</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>126</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>60</v>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4013,25 +4336,28 @@
         </is>
       </c>
       <c r="C108">
+        <v>76001</v>
+      </c>
+      <c r="D108">
         <v>1400</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>350</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>30</v>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H108" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4047,25 +4373,28 @@
         </is>
       </c>
       <c r="C109">
+        <v>76001</v>
+      </c>
+      <c r="D109">
         <v>1132</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>283</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>60</v>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H109" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4081,25 +4410,28 @@
         </is>
       </c>
       <c r="C110">
+        <v>76002</v>
+      </c>
+      <c r="D110">
         <v>331</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>82.75</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>60</v>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4115,25 +4447,28 @@
         </is>
       </c>
       <c r="C111">
+        <v>76002</v>
+      </c>
+      <c r="D111">
         <v>1064</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>266</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>30</v>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H111" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4149,25 +4484,28 @@
         </is>
       </c>
       <c r="C112">
+        <v>76002</v>
+      </c>
+      <c r="D112">
         <v>1455</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>363.75</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>30</v>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H112" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4183,25 +4521,28 @@
         </is>
       </c>
       <c r="C113">
+        <v>76002</v>
+      </c>
+      <c r="D113">
         <v>925</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>231.25</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>30</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4217,25 +4558,28 @@
         </is>
       </c>
       <c r="C114">
+        <v>76002</v>
+      </c>
+      <c r="D114">
         <v>683</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>170.75</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>60</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4251,25 +4595,28 @@
         </is>
       </c>
       <c r="C115">
+        <v>76001</v>
+      </c>
+      <c r="D115">
         <v>370</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>92.5</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>30</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4285,25 +4632,28 @@
         </is>
       </c>
       <c r="C116">
+        <v>76002</v>
+      </c>
+      <c r="D116">
         <v>510</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>127.5</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>30</v>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4319,25 +4669,28 @@
         </is>
       </c>
       <c r="C117">
+        <v>76001</v>
+      </c>
+      <c r="D117">
         <v>875</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>218.75</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>60</v>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4353,25 +4706,28 @@
         </is>
       </c>
       <c r="C118">
+        <v>76002</v>
+      </c>
+      <c r="D118">
         <v>271</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>67.75</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>60</v>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4387,25 +4743,28 @@
         </is>
       </c>
       <c r="C119">
+        <v>76001</v>
+      </c>
+      <c r="D119">
         <v>1522</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>380.5</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>30</v>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H119" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4421,25 +4780,28 @@
         </is>
       </c>
       <c r="C120">
+        <v>76002</v>
+      </c>
+      <c r="D120">
         <v>1082</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>270.5</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>30</v>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H120" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4455,25 +4817,28 @@
         </is>
       </c>
       <c r="C121">
+        <v>76002</v>
+      </c>
+      <c r="D121">
         <v>966</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>241.5</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>90</v>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4489,25 +4854,28 @@
         </is>
       </c>
       <c r="C122">
+        <v>76001</v>
+      </c>
+      <c r="D122">
         <v>1150</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>287.5</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>30</v>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H122" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4523,25 +4891,28 @@
         </is>
       </c>
       <c r="C123">
+        <v>76001</v>
+      </c>
+      <c r="D123">
         <v>1887</v>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>471.75</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>90</v>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H123" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4557,25 +4928,28 @@
         </is>
       </c>
       <c r="C124">
+        <v>76001</v>
+      </c>
+      <c r="D124">
         <v>714</v>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>178.5</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>90</v>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4591,25 +4965,28 @@
         </is>
       </c>
       <c r="C125">
+        <v>76002</v>
+      </c>
+      <c r="D125">
         <v>1340</v>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>335</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>30</v>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H125" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4625,25 +5002,28 @@
         </is>
       </c>
       <c r="C126">
+        <v>76001</v>
+      </c>
+      <c r="D126">
         <v>1289</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>322.25</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>60</v>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H126" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4659,25 +5039,28 @@
         </is>
       </c>
       <c r="C127">
+        <v>76002</v>
+      </c>
+      <c r="D127">
         <v>807</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>201.75</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>60</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4693,25 +5076,28 @@
         </is>
       </c>
       <c r="C128">
+        <v>76002</v>
+      </c>
+      <c r="D128">
         <v>1833</v>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>458.25</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>90</v>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H128" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4727,25 +5113,28 @@
         </is>
       </c>
       <c r="C129">
+        <v>76001</v>
+      </c>
+      <c r="D129">
         <v>1301</v>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>325.25</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>60</v>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H129" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4761,25 +5150,28 @@
         </is>
       </c>
       <c r="C130">
+        <v>76002</v>
+      </c>
+      <c r="D130">
         <v>651</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>162.75</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>60</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4795,25 +5187,28 @@
         </is>
       </c>
       <c r="C131">
+        <v>76002</v>
+      </c>
+      <c r="D131">
         <v>225</v>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>56.25</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>90</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4829,25 +5224,28 @@
         </is>
       </c>
       <c r="C132">
+        <v>76002</v>
+      </c>
+      <c r="D132">
         <v>935</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>233.75</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>90</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4863,25 +5261,28 @@
         </is>
       </c>
       <c r="C133">
+        <v>76001</v>
+      </c>
+      <c r="D133">
         <v>840</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>210</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>60</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4897,25 +5298,28 @@
         </is>
       </c>
       <c r="C134">
+        <v>76002</v>
+      </c>
+      <c r="D134">
         <v>820</v>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>205</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>90</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4931,25 +5335,28 @@
         </is>
       </c>
       <c r="C135">
+        <v>76002</v>
+      </c>
+      <c r="D135">
         <v>587</v>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>146.75</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>30</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4965,25 +5372,28 @@
         </is>
       </c>
       <c r="C136">
+        <v>76002</v>
+      </c>
+      <c r="D136">
         <v>581</v>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>145.25</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>60</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -4999,25 +5409,28 @@
         </is>
       </c>
       <c r="C137">
+        <v>76002</v>
+      </c>
+      <c r="D137">
         <v>1769</v>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>442.25</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>30</v>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H137" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5033,25 +5446,28 @@
         </is>
       </c>
       <c r="C138">
+        <v>76002</v>
+      </c>
+      <c r="D138">
         <v>847</v>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>211.75</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>30</v>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5067,25 +5483,28 @@
         </is>
       </c>
       <c r="C139">
+        <v>76001</v>
+      </c>
+      <c r="D139">
         <v>1168</v>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>292</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>60</v>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H139" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5101,25 +5520,28 @@
         </is>
       </c>
       <c r="C140">
+        <v>76001</v>
+      </c>
+      <c r="D140">
         <v>1760</v>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>440</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>90</v>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H140" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5135,25 +5557,28 @@
         </is>
       </c>
       <c r="C141">
+        <v>76002</v>
+      </c>
+      <c r="D141">
         <v>1877</v>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>469.25</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>60</v>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H141" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5169,25 +5594,28 @@
         </is>
       </c>
       <c r="C142">
+        <v>76001</v>
+      </c>
+      <c r="D142">
         <v>1132</v>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>283</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>90</v>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H142" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5203,25 +5631,28 @@
         </is>
       </c>
       <c r="C143">
+        <v>76001</v>
+      </c>
+      <c r="D143">
         <v>1187</v>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>296.75</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>90</v>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H143" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5237,25 +5668,28 @@
         </is>
       </c>
       <c r="C144">
+        <v>76002</v>
+      </c>
+      <c r="D144">
         <v>472</v>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>118</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>30</v>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5271,25 +5705,28 @@
         </is>
       </c>
       <c r="C145">
+        <v>76001</v>
+      </c>
+      <c r="D145">
         <v>1774</v>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>443.5</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>60</v>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H145" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5305,25 +5742,28 @@
         </is>
       </c>
       <c r="C146">
+        <v>76002</v>
+      </c>
+      <c r="D146">
         <v>362</v>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>90.5</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>60</v>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5339,25 +5779,28 @@
         </is>
       </c>
       <c r="C147">
+        <v>76001</v>
+      </c>
+      <c r="D147">
         <v>1310</v>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>327.5</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>60</v>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H147" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5373,25 +5816,28 @@
         </is>
       </c>
       <c r="C148">
+        <v>76002</v>
+      </c>
+      <c r="D148">
         <v>885</v>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>221.25</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>60</v>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5407,25 +5853,28 @@
         </is>
       </c>
       <c r="C149">
+        <v>76001</v>
+      </c>
+      <c r="D149">
         <v>1920</v>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>480</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>30</v>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H149" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5441,25 +5890,28 @@
         </is>
       </c>
       <c r="C150">
+        <v>76002</v>
+      </c>
+      <c r="D150">
         <v>319</v>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>79.75</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>30</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5475,25 +5927,28 @@
         </is>
       </c>
       <c r="C151">
+        <v>76002</v>
+      </c>
+      <c r="D151">
         <v>202</v>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>50.5</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>60</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5509,25 +5964,28 @@
         </is>
       </c>
       <c r="C152">
+        <v>76002</v>
+      </c>
+      <c r="D152">
         <v>504</v>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>126</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>30</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5543,25 +6001,28 @@
         </is>
       </c>
       <c r="C153">
+        <v>76002</v>
+      </c>
+      <c r="D153">
         <v>1167</v>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>291.75</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>30</v>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H153" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5577,25 +6038,28 @@
         </is>
       </c>
       <c r="C154">
+        <v>76001</v>
+      </c>
+      <c r="D154">
         <v>1755</v>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>438.75</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>60</v>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H154" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5611,25 +6075,28 @@
         </is>
       </c>
       <c r="C155">
+        <v>76002</v>
+      </c>
+      <c r="D155">
         <v>489</v>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>122.25</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>90</v>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5645,25 +6112,28 @@
         </is>
       </c>
       <c r="C156">
+        <v>76001</v>
+      </c>
+      <c r="D156">
         <v>299</v>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>74.75</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>60</v>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5679,25 +6149,28 @@
         </is>
       </c>
       <c r="C157">
+        <v>76002</v>
+      </c>
+      <c r="D157">
         <v>1754</v>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>438.5</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>90</v>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H157" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5713,25 +6186,28 @@
         </is>
       </c>
       <c r="C158">
+        <v>76002</v>
+      </c>
+      <c r="D158">
         <v>810</v>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>202.5</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>30</v>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5747,25 +6223,28 @@
         </is>
       </c>
       <c r="C159">
+        <v>76001</v>
+      </c>
+      <c r="D159">
         <v>1805</v>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>Ismael Rodero Monteagudo</t>
         </is>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>451.25</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>90</v>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H159" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5781,25 +6260,28 @@
         </is>
       </c>
       <c r="C160">
+        <v>76001</v>
+      </c>
+      <c r="D160">
         <v>1980</v>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>495</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>90</v>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H160" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5815,25 +6297,28 @@
         </is>
       </c>
       <c r="C161">
+        <v>76002</v>
+      </c>
+      <c r="D161">
         <v>942</v>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>235.5</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>30</v>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5849,25 +6334,28 @@
         </is>
       </c>
       <c r="C162">
+        <v>76001</v>
+      </c>
+      <c r="D162">
         <v>1810</v>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>452.5</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>90</v>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H162" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5883,25 +6371,28 @@
         </is>
       </c>
       <c r="C163">
+        <v>76001</v>
+      </c>
+      <c r="D163">
         <v>916</v>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>229</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>60</v>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5917,25 +6408,28 @@
         </is>
       </c>
       <c r="C164">
+        <v>76002</v>
+      </c>
+      <c r="D164">
         <v>681</v>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>170.25</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>30</v>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5951,25 +6445,28 @@
         </is>
       </c>
       <c r="C165">
+        <v>76001</v>
+      </c>
+      <c r="D165">
         <v>1028</v>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>257</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>90</v>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H165" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -5985,25 +6482,28 @@
         </is>
       </c>
       <c r="C166">
+        <v>76001</v>
+      </c>
+      <c r="D166">
         <v>1818</v>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>454.5</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>90</v>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H166" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6019,25 +6519,28 @@
         </is>
       </c>
       <c r="C167">
+        <v>76001</v>
+      </c>
+      <c r="D167">
         <v>813</v>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>203.25</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>30</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6053,25 +6556,28 @@
         </is>
       </c>
       <c r="C168">
+        <v>76002</v>
+      </c>
+      <c r="D168">
         <v>575</v>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>143.75</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>60</v>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6087,25 +6593,28 @@
         </is>
       </c>
       <c r="C169">
+        <v>76001</v>
+      </c>
+      <c r="D169">
         <v>1296</v>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>324</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>60</v>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H169" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6121,25 +6630,28 @@
         </is>
       </c>
       <c r="C170">
+        <v>76001</v>
+      </c>
+      <c r="D170">
         <v>1023</v>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>255.75</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>30</v>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H170" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6155,25 +6667,28 @@
         </is>
       </c>
       <c r="C171">
+        <v>76001</v>
+      </c>
+      <c r="D171">
         <v>1333</v>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>333.25</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>90</v>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H171" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6189,25 +6704,28 @@
         </is>
       </c>
       <c r="C172">
+        <v>76001</v>
+      </c>
+      <c r="D172">
         <v>560</v>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>140</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>60</v>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6223,25 +6741,28 @@
         </is>
       </c>
       <c r="C173">
+        <v>76002</v>
+      </c>
+      <c r="D173">
         <v>719</v>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>179.75</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>60</v>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="I173" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6257,25 +6778,28 @@
         </is>
       </c>
       <c r="C174">
+        <v>76002</v>
+      </c>
+      <c r="D174">
         <v>1442</v>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>360.5</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>60</v>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H174" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6291,25 +6815,28 @@
         </is>
       </c>
       <c r="C175">
+        <v>76001</v>
+      </c>
+      <c r="D175">
         <v>1430</v>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>357.5</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>60</v>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H175" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6325,25 +6852,28 @@
         </is>
       </c>
       <c r="C176">
+        <v>76001</v>
+      </c>
+      <c r="D176">
         <v>1201</v>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>300.25</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>60</v>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H176" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6359,25 +6889,28 @@
         </is>
       </c>
       <c r="C177">
+        <v>76001</v>
+      </c>
+      <c r="D177">
         <v>1212</v>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>303</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>30</v>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H177" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6393,25 +6926,28 @@
         </is>
       </c>
       <c r="C178">
+        <v>76001</v>
+      </c>
+      <c r="D178">
         <v>310</v>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>77.5</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>60</v>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="I178" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6427,25 +6963,28 @@
         </is>
       </c>
       <c r="C179">
+        <v>76001</v>
+      </c>
+      <c r="D179">
         <v>1057</v>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>264.25</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>90</v>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H179" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6461,25 +7000,28 @@
         </is>
       </c>
       <c r="C180">
+        <v>76001</v>
+      </c>
+      <c r="D180">
         <v>971</v>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>242.75</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>60</v>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6495,25 +7037,28 @@
         </is>
       </c>
       <c r="C181">
+        <v>76001</v>
+      </c>
+      <c r="D181">
         <v>1006</v>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>251.5</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>30</v>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H181" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6529,25 +7074,28 @@
         </is>
       </c>
       <c r="C182">
+        <v>76001</v>
+      </c>
+      <c r="D182">
         <v>1005</v>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>251.25</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>30</v>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H182" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6563,25 +7111,28 @@
         </is>
       </c>
       <c r="C183">
+        <v>76002</v>
+      </c>
+      <c r="D183">
         <v>470</v>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>117.5</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>60</v>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="I183" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6597,25 +7148,28 @@
         </is>
       </c>
       <c r="C184">
+        <v>76001</v>
+      </c>
+      <c r="D184">
         <v>1641</v>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>410.25</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>90</v>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H184" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6631,25 +7185,28 @@
         </is>
       </c>
       <c r="C185">
+        <v>76002</v>
+      </c>
+      <c r="D185">
         <v>890</v>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>222.5</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>60</v>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="I185" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6665,25 +7222,28 @@
         </is>
       </c>
       <c r="C186">
+        <v>76002</v>
+      </c>
+      <c r="D186">
         <v>1392</v>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>348</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>90</v>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H186" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6699,25 +7259,28 @@
         </is>
       </c>
       <c r="C187">
+        <v>76002</v>
+      </c>
+      <c r="D187">
         <v>1317</v>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>329.25</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>30</v>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H187" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6733,25 +7296,28 @@
         </is>
       </c>
       <c r="C188">
+        <v>76002</v>
+      </c>
+      <c r="D188">
         <v>1802</v>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>450.5</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>30</v>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H188" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6767,25 +7333,28 @@
         </is>
       </c>
       <c r="C189">
+        <v>76002</v>
+      </c>
+      <c r="D189">
         <v>870</v>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>217.5</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>90</v>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6801,25 +7370,28 @@
         </is>
       </c>
       <c r="C190">
+        <v>76002</v>
+      </c>
+      <c r="D190">
         <v>1497</v>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>374.25</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>30</v>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H190" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6835,25 +7407,28 @@
         </is>
       </c>
       <c r="C191">
+        <v>76002</v>
+      </c>
+      <c r="D191">
         <v>736</v>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>184</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>60</v>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="I191" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6869,25 +7444,28 @@
         </is>
       </c>
       <c r="C192">
+        <v>76002</v>
+      </c>
+      <c r="D192">
         <v>767</v>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>191.75</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>60</v>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6903,25 +7481,28 @@
         </is>
       </c>
       <c r="C193">
+        <v>76001</v>
+      </c>
+      <c r="D193">
         <v>1371</v>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>342.75</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>90</v>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H193" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6937,25 +7518,28 @@
         </is>
       </c>
       <c r="C194">
+        <v>76002</v>
+      </c>
+      <c r="D194">
         <v>1211</v>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>302.75</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>30</v>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H194" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -6971,25 +7555,28 @@
         </is>
       </c>
       <c r="C195">
+        <v>76002</v>
+      </c>
+      <c r="D195">
         <v>1816</v>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>454</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>90</v>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H195" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7005,25 +7592,28 @@
         </is>
       </c>
       <c r="C196">
+        <v>76002</v>
+      </c>
+      <c r="D196">
         <v>1726</v>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>431.5</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>90</v>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H196" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7039,25 +7629,28 @@
         </is>
       </c>
       <c r="C197">
+        <v>76001</v>
+      </c>
+      <c r="D197">
         <v>801</v>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>200.25</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>90</v>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="I197" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7073,25 +7666,28 @@
         </is>
       </c>
       <c r="C198">
+        <v>76001</v>
+      </c>
+      <c r="D198">
         <v>1512</v>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>Juan Francisco Portillo Gomez</t>
         </is>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>378</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>30</v>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H198" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7107,25 +7703,28 @@
         </is>
       </c>
       <c r="C199">
+        <v>76002</v>
+      </c>
+      <c r="D199">
         <v>633</v>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>158.25</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>60</v>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7141,25 +7740,28 @@
         </is>
       </c>
       <c r="C200">
+        <v>76002</v>
+      </c>
+      <c r="D200">
         <v>933</v>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>Pedro Alvarez Parejo</t>
         </is>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>233.25</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>60</v>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="I200" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7175,25 +7777,28 @@
         </is>
       </c>
       <c r="C201">
+        <v>76001</v>
+      </c>
+      <c r="D201">
         <v>1657</v>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>414.25</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>30</v>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H201" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7209,25 +7814,28 @@
         </is>
       </c>
       <c r="C202">
+        <v>76001</v>
+      </c>
+      <c r="D202">
         <v>234</v>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>58.5</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>90</v>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7243,25 +7851,28 @@
         </is>
       </c>
       <c r="C203">
+        <v>76002</v>
+      </c>
+      <c r="D203">
         <v>203</v>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>50.75</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>30</v>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7277,25 +7888,28 @@
         </is>
       </c>
       <c r="C204">
+        <v>76001</v>
+      </c>
+      <c r="D204">
         <v>1848</v>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>Angel Valdez Alegria</t>
         </is>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>462</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>30</v>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H204" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7311,25 +7925,28 @@
         </is>
       </c>
       <c r="C205">
+        <v>76001</v>
+      </c>
+      <c r="D205">
         <v>1307</v>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E205">
+      <c r="F205">
         <v>326.75</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>60</v>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H205" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7345,25 +7962,28 @@
         </is>
       </c>
       <c r="C206">
+        <v>76001</v>
+      </c>
+      <c r="D206">
         <v>1139</v>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>284.75</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>90</v>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H206" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7379,25 +7999,28 @@
         </is>
       </c>
       <c r="C207">
+        <v>76002</v>
+      </c>
+      <c r="D207">
         <v>784</v>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>Fernando Mariano Berrio</t>
         </is>
       </c>
-      <c r="E207">
+      <c r="F207">
         <v>196</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>60</v>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="I207" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7413,25 +8036,28 @@
         </is>
       </c>
       <c r="C208">
+        <v>76002</v>
+      </c>
+      <c r="D208">
         <v>1825</v>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>456.25</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>60</v>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H208" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7447,25 +8073,28 @@
         </is>
       </c>
       <c r="C209">
+        <v>76002</v>
+      </c>
+      <c r="D209">
         <v>682</v>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>170.5</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>60</v>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7481,25 +8110,28 @@
         </is>
       </c>
       <c r="C210">
+        <v>76002</v>
+      </c>
+      <c r="D210">
         <v>735</v>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>183.75</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>60</v>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="I210" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7515,25 +8147,28 @@
         </is>
       </c>
       <c r="C211">
+        <v>76001</v>
+      </c>
+      <c r="D211">
         <v>1062</v>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>265.5</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>60</v>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H211" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7549,25 +8184,28 @@
         </is>
       </c>
       <c r="C212">
+        <v>76001</v>
+      </c>
+      <c r="D212">
         <v>1733</v>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>Felipe Villatoro</t>
         </is>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>433.25</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>90</v>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H212" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7583,25 +8221,28 @@
         </is>
       </c>
       <c r="C213">
+        <v>76002</v>
+      </c>
+      <c r="D213">
         <v>1483</v>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E213">
+      <c r="F213">
         <v>370.75</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>30</v>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H213" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7617,25 +8258,28 @@
         </is>
       </c>
       <c r="C214">
+        <v>76002</v>
+      </c>
+      <c r="D214">
         <v>1311</v>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>Hector Giron</t>
         </is>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>327.75</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>60</v>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H214" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7651,25 +8295,28 @@
         </is>
       </c>
       <c r="C215">
+        <v>76001</v>
+      </c>
+      <c r="D215">
         <v>933</v>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>Hector Aragones Frutos</t>
         </is>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>233.25</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>60</v>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>Camion Pequeño</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="I215" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
@@ -7685,25 +8332,28 @@
         </is>
       </c>
       <c r="C216">
+        <v>76002</v>
+      </c>
+      <c r="D216">
         <v>1838</v>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>Luis Jaime Urbano</t>
         </is>
       </c>
-      <c r="E216">
+      <c r="F216">
         <v>459.5</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>90</v>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Camion Grande</t>
-        </is>
-      </c>
       <c r="H216" t="inlineStr">
+        <is>
+          <t>Camion Grande</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
         <is>
           <t>05-2018</t>
         </is>
